--- a/data/trans_orig/P79A2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P79A2_2023-Habitat-trans_orig.xlsx
@@ -741,16 +741,16 @@
         <v>3819</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1175</v>
+        <v>1165</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>5461</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6993911538217491</v>
+        <v>0.6993911538217493</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2151906441297151</v>
+        <v>0.2133081533938922</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -762,19 +762,19 @@
         <v>6124</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3212</v>
+        <v>3200</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8155</v>
+        <v>8239</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6478383822895104</v>
+        <v>0.6478383822895105</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3397809074661092</v>
+        <v>0.3385104505889018</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8627371906983956</v>
+        <v>0.8715332313707322</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -783,19 +783,19 @@
         <v>9944</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6092</v>
+        <v>6056</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12797</v>
+        <v>12763</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6667151584002594</v>
+        <v>0.6667151584002596</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4084543576078907</v>
+        <v>0.4060325852575127</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8579699994630318</v>
+        <v>0.8557326821303732</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4260</v>
+        <v>4463</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3006088461782508</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7801560221029508</v>
+        <v>0.8172486418997382</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -833,19 +833,19 @@
         <v>3329</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1298</v>
+        <v>1214</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6241</v>
+        <v>6253</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3521616177104894</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1372628093016043</v>
+        <v>0.1284667686292677</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6602190925338909</v>
+        <v>0.6614895494110983</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -854,19 +854,19 @@
         <v>4971</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2118</v>
+        <v>2152</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8823</v>
+        <v>8859</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3332848415997404</v>
+        <v>0.3332848415997405</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1420300005369682</v>
+        <v>0.1442673178696268</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5915456423921093</v>
+        <v>0.5939674147424872</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>9496</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5339</v>
+        <v>4935</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12825</v>
+        <v>12730</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6850883720258016</v>
+        <v>0.6850883720258018</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.385176103764702</v>
+        <v>0.3560323992445391</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9252675992353796</v>
+        <v>0.9183682073370782</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -979,19 +979,19 @@
         <v>12603</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6702</v>
+        <v>6970</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17937</v>
+        <v>17743</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5177555567608438</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2753340122682991</v>
+        <v>0.28635397122404</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7368959258097618</v>
+        <v>0.7289148593903989</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -1000,19 +1000,19 @@
         <v>22099</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15060</v>
+        <v>14624</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28405</v>
+        <v>28163</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5784711545758193</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3942076245524984</v>
+        <v>0.3827944151543877</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7435412068892328</v>
+        <v>0.7372024771085656</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>4365</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1036</v>
+        <v>1131</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8522</v>
+        <v>8926</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3149116279741982</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07473240076462025</v>
+        <v>0.08163179266292168</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6148238962352978</v>
+        <v>0.6439676007554612</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -1050,19 +1050,19 @@
         <v>11738</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6404</v>
+        <v>6598</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17639</v>
+        <v>17371</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4822444432391561</v>
+        <v>0.4822444432391563</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2631040741902377</v>
+        <v>0.2710851406096011</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.724665987731701</v>
+        <v>0.7136460287759598</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -1071,19 +1071,19 @@
         <v>16103</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>9797</v>
+        <v>10039</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>23142</v>
+        <v>23578</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4215288454241806</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2564587931107674</v>
+        <v>0.2627975228914345</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6057923754475012</v>
+        <v>0.6172055848456123</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>7835</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3641</v>
+        <v>3348</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10562</v>
+        <v>10483</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6811005057510486</v>
+        <v>0.6811005057510484</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3165140489343313</v>
+        <v>0.2909888828884795</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9181000411120196</v>
+        <v>0.9112874702392356</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1196,7 +1196,7 @@
         <v>10713</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4580</v>
+        <v>4397</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>13647</v>
@@ -1205,7 +1205,7 @@
         <v>0.7849716592849056</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3356009572478044</v>
+        <v>0.3222276072569923</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1217,19 +1217,19 @@
         <v>18548</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11046</v>
+        <v>11351</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23260</v>
+        <v>23484</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7374622596860934</v>
+        <v>0.7374622596860932</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4391959755662688</v>
+        <v>0.4512980373459375</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9248301726704961</v>
+        <v>0.9337273983190093</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>3669</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>942</v>
+        <v>1021</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7863</v>
+        <v>8156</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3188994942489515</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08189995888798063</v>
+        <v>0.08871252976076426</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6834859510656687</v>
+        <v>0.7090111171115204</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9067</v>
+        <v>9250</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2150283407150945</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6643990427521954</v>
+        <v>0.6777723927430077</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -1288,19 +1288,19 @@
         <v>6603</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1891</v>
+        <v>1667</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14105</v>
+        <v>13800</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2625377403139067</v>
+        <v>0.2625377403139066</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07516982732950396</v>
+        <v>0.06627260168099069</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5608040244337313</v>
+        <v>0.5487019626540625</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>27280</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20997</v>
+        <v>20152</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31457</v>
+        <v>31628</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7890978543897629</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6073464327049911</v>
+        <v>0.5829020675589653</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.909914257241191</v>
+        <v>0.914858172700465</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -1413,19 +1413,19 @@
         <v>28048</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21968</v>
+        <v>22236</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32326</v>
+        <v>32607</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.7639703966528394</v>
+        <v>0.7639703966528395</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.598381377649989</v>
+        <v>0.6056737718967606</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8805102253403185</v>
+        <v>0.8881717255619617</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>54</v>
@@ -1434,19 +1434,19 @@
         <v>55328</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46996</v>
+        <v>47163</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>61675</v>
+        <v>61529</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7761565918854946</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6592735542209999</v>
+        <v>0.6616175433181021</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8651947955310912</v>
+        <v>0.8631545441464544</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>7291</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3114</v>
+        <v>2943</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13574</v>
+        <v>14419</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2109021456102372</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09008574275880912</v>
+        <v>0.08514182729953472</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3926535672950089</v>
+        <v>0.4170979324410345</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -1484,19 +1484,19 @@
         <v>8665</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4387</v>
+        <v>4106</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14745</v>
+        <v>14477</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2360296033471606</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1194897746596811</v>
+        <v>0.1118282744380385</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4016186223500114</v>
+        <v>0.3943262281032395</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -1505,19 +1505,19 @@
         <v>15956</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9609</v>
+        <v>9755</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24288</v>
+        <v>24121</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2238434081145054</v>
+        <v>0.2238434081145053</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1348052044689087</v>
+        <v>0.1368454558535455</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3407264457789999</v>
+        <v>0.3383824566818978</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>48431</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39295</v>
+        <v>39933</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55019</v>
+        <v>55357</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7405637963648647</v>
+        <v>0.7405637963648646</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6008553891463776</v>
+        <v>0.6106134999653916</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.841299306443912</v>
+        <v>0.8464627812411638</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>66</v>
@@ -1630,19 +1630,19 @@
         <v>57488</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45593</v>
+        <v>46634</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66349</v>
+        <v>66147</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6831159730803701</v>
+        <v>0.6831159730803698</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5417748955117776</v>
+        <v>0.5541382881047628</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7884200031595532</v>
+        <v>0.7860167445398134</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>106</v>
@@ -1651,19 +1651,19 @@
         <v>105918</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>90778</v>
+        <v>92261</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>116379</v>
+        <v>117817</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7082372794859382</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6069984283283187</v>
+        <v>0.6169141318415606</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7781867596031098</v>
+        <v>0.7878024720754364</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>16967</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10379</v>
+        <v>10041</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26103</v>
+        <v>25465</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2594362036351355</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.158700693556088</v>
+        <v>0.1535372187588361</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.399144610853623</v>
+        <v>0.3893865000346081</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -1701,19 +1701,19 @@
         <v>26667</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17806</v>
+        <v>18008</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38562</v>
+        <v>37521</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3168840269196301</v>
+        <v>0.31688402691963</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2115799968404467</v>
+        <v>0.2139832554601866</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4582251044882228</v>
+        <v>0.4458617118952369</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>41</v>
@@ -1722,19 +1722,19 @@
         <v>43634</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>33173</v>
+        <v>31735</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>58774</v>
+        <v>57291</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2917627205140618</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2218132403968901</v>
+        <v>0.2121975279245635</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.393001571671681</v>
+        <v>0.3830858681584395</v>
       </c>
     </row>
     <row r="18">
